--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.030121.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.030121.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1559,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1635,12 +1635,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1867,12 +1867,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2195,12 +2195,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2237,12 +2237,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2489,12 +2489,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2531,12 +2531,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2909,12 +2909,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3237,12 +3237,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3573,12 +3573,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3615,12 +3615,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3657,12 +3657,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4359,12 +4359,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4569,12 +4569,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4691,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4859,12 +4859,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5855,12 +5855,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6297,12 +6297,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6423,12 +6423,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6507,12 +6507,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7301,12 +7301,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7839,12 +7839,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8595,12 +8595,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9057,12 +9057,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9393,12 +9393,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9561,12 +9561,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9771,12 +9771,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9813,12 +9813,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10065,12 +10065,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10191,12 +10191,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12567,12 +12567,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12693,12 +12693,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14075,12 +14075,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14365,12 +14365,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14597,12 +14597,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14975,12 +14975,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15055,12 +15055,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15849,12 +15849,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
